--- a/Daily Time Sheet.xlsx
+++ b/Daily Time Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="19890" windowHeight="7620" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TIME TABLE" sheetId="13" state="hidden" r:id="rId1"/>
@@ -1531,16 +1531,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <i/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="14"/>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -7092,7 +7092,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7118,11 +7118,11 @@
     <row r="1" ht="57" customHeight="1" spans="1:19">
       <c r="A1" s="114" cm="1">
         <f t="array" ref="A1">280-SUMPRODUCT((MOD(ROW(D4:D244)-ROW(D4),8)&lt;7)*(D4:D244&lt;&gt;""))</f>
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="115" t="str" cm="1">
         <f t="array" ref="B1">INT((280-SUMPRODUCT((MOD(ROW(D4:D244)-ROW(D4),8)&lt;7)*(D4:D244&lt;&gt;"")))/28)&amp;" months "&amp;MOD(280-SUMPRODUCT((MOD(ROW(D4:D244)-ROW(D4),8)&lt;7)*(D4:D244&lt;&gt;"")),28)&amp;" days"</f>
-        <v>9 months 25 days</v>
+        <v>9 months 24 days</v>
       </c>
       <c r="C1" s="116" t="s">
         <v>98</v>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="R4" s="55" t="str">
         <f>IF(Q11&gt;=100,"NPL",IF(AND(Q11&lt;=99.99,Q11&gt;=95),"N*",IF(AND(Q11&lt;=94.99,Q11&gt;=88),"ICN1",IF(AND(Q11&lt;=87.99,Q11&gt;=80),"ICN2",IF(AND(Q11&lt;=79.99,Q11&gt;=70),"ICN3",IF(AND(Q11&lt;=69.99,Q11&gt;=60),"ICN4",IF(Q11=0,"-","ICN5")))))))</f>
-        <v>ICN4</v>
+        <v>ICN5</v>
       </c>
       <c r="S4" s="56"/>
     </row>
@@ -7358,20 +7358,34 @@
       <c r="D6" s="23">
         <v>85</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
       <c r="F6" s="22">
         <v>60</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>50</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
       <c r="J6" s="39" cm="1">
         <f t="array" ref="J6">IF(COUNTA(F6:I6)=0,"",SUM(F6:I6)/SUMPRODUCT(--(F6:I6&lt;&gt;"")))</f>
-        <v>60</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+        <v>27.5</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
       <c r="N6" s="40" t="s">
         <v>125</v>
       </c>
@@ -7383,7 +7397,7 @@
       </c>
       <c r="Q6" s="54">
         <f t="shared" si="0"/>
-        <v>51.9230769230769</v>
+        <v>59.6153846153846</v>
       </c>
       <c r="R6" s="61"/>
       <c r="S6" s="56"/>
@@ -7395,8 +7409,12 @@
       <c r="B7" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23">
+        <v>90</v>
+      </c>
       <c r="E7" s="24"/>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
@@ -7414,7 +7432,7 @@
       <c r="P7" s="40"/>
       <c r="Q7" s="54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.8461538461538</v>
       </c>
       <c r="R7" s="61"/>
       <c r="S7" s="56"/>
@@ -7519,15 +7537,15 @@
       <c r="B11" s="122"/>
       <c r="C11" s="123" cm="1">
         <f t="array" ref="C11">IF(COUNTA(C4:C10)=0,"",SUM(C4:C10)/SUMPRODUCT(--(C4:C10&lt;&gt;"")))</f>
-        <v>96.6666666666667</v>
+        <v>72.5</v>
       </c>
       <c r="D11" s="123" cm="1">
         <f t="array" ref="D11">IF(COUNTA(D4:D10)=0,"",SUM(D4:D10)/SUMPRODUCT(--(D4:D10&lt;&gt;"")))</f>
-        <v>61.6666666666667</v>
+        <v>68.75</v>
       </c>
       <c r="E11" s="123" cm="1">
         <f t="array" ref="E11">IF(COUNTA(E4:E10)=0,"",SUM(E4:E10)/SUMPRODUCT(--(E4:E10&lt;&gt;"")))</f>
-        <v>85</v>
+        <v>56.6666666666667</v>
       </c>
       <c r="F11" s="123" cm="1">
         <f t="array" ref="F11">IF(COUNTA(F4:F10)=0,"",SUM(F4:F10)/SUMPRODUCT(--(F4:F10&lt;&gt;"")))</f>
@@ -7535,23 +7553,23 @@
       </c>
       <c r="G11" s="123" cm="1">
         <f t="array" ref="G11">IF(COUNTA(G4:G10)=0,"",SUM(G4:G10)/SUMPRODUCT(--(G4:G10&lt;&gt;"")))</f>
-        <v>50</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="H11" s="123" cm="1">
         <f t="array" ref="H11">IF(COUNTA(H4:H10)=0,"",SUM(H4:H10)/SUMPRODUCT(--(H4:H10&lt;&gt;"")))</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I11" s="123" cm="1">
         <f t="array" ref="I11">IF(COUNTA(I4:I10)=0,"",SUM(I4:I10)/SUMPRODUCT(--(I4:I10&lt;&gt;"")))</f>
-        <v>12.5</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="J11" s="123" cm="1">
         <f t="array" ref="J11">IF(SUMPRODUCT(--(J4:J10&lt;&gt;""))=0,"",SUM(J4:J10)/SUMPRODUCT(--(J4:J10&lt;&gt;"")))</f>
-        <v>50.4166666666667</v>
+        <v>39.5833333333333</v>
       </c>
       <c r="K11" s="123" cm="1">
         <f t="array" ref="K11">IF(COUNTA(K4:K10)=0,"",SUM(K4:K10)/SUMPRODUCT(--(K4:K10&lt;&gt;"")))</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L11" s="123" cm="1">
         <f t="array" ref="L11">IF(COUNTA(L4:L10)=0,"",SUM(L4:L10)/SUMPRODUCT(--(L4:L10&lt;&gt;"")))</f>
@@ -7559,7 +7577,7 @@
       </c>
       <c r="M11" s="123" cm="1">
         <f t="array" ref="M11">IF(COUNTA(M4:M10)=0,"",SUM(M4:M10)/SUMPRODUCT(--(M4:M10&lt;&gt;"")))</f>
-        <v>100</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="N11" s="125" cm="1">
         <f t="array" ref="N11">IF(COUNTA(P4:P10)=0,"",SUM(P4:P10)/SUMPRODUCT(--(P4:P10&lt;&gt;"")))</f>
@@ -7569,7 +7587,7 @@
       <c r="P11" s="123"/>
       <c r="Q11" s="108" cm="1">
         <f t="array" ref="Q11">SUM(Q4:Q10)/IF(SUM(Q4:Q10)=0,1,SUM(IF(Q4:Q10&lt;&gt;0,1,0)))</f>
-        <v>66.1538461538461</v>
+        <v>55</v>
       </c>
       <c r="R11" s="128" t="str">
         <f>REPT("-",12)</f>
@@ -7911,7 +7929,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" ht="15.75" spans="2:7">
       <c r="B11" s="78" t="s">
         <v>157</v>
       </c>
@@ -7959,6 +7977,7 @@
         <v>85</v>
       </c>
     </row>
+    <row r="15" ht="15.75"/>
     <row r="16" ht="15.75" spans="2:4">
       <c r="B16" s="85" t="s">
         <v>163</v>
